--- a/中間報告/data/pressure_200.xlsx
+++ b/中間報告/data/pressure_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\suction_FromNov\velocity comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\suction\中間報告\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F4D320-E122-49F8-A29A-13D348433BCC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BABF0B0-3CBA-47C6-9C7E-80A0C640C408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="10815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pressure_200" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,6 +701,1612 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pressure_200!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg pressure (stats)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pressure_200!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pressure_200!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-81.388900000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-33.750599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.6991900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.4269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.607900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.376899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.1203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.851999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.715400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.529600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.0687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.171999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.440800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.539700000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.249600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.656700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.337499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.661900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.461100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.976900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.825800000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.6828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.990200000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.029200000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.846299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.690300000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.9255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.967100000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.1447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.119500000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52.898099999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.8459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.230400000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.154299999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.468400000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.443199999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.910699999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.480200000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.8185</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.4283</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.738100000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.358400000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.5625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.866700000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.796799999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.726599999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.824399999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.480600000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44.318199999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.158299999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.903100000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45.5379</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46.500700000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.420699999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46.328899999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46.366999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46.401699999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46.079500000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>46.037300000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45.826099999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45.767400000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45.588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.072099999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.041200000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.575400000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.944699999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.263199999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.719299999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.325099999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41.691099999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.997399999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.5244</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38.703200000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38.371200000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.718800000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36.863300000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.99</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35.1494</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34.135199999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32.5578</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.569900000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25.802399999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.7256</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.9145</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.880699999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.806900000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.2831399999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.7998500000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1752500000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.1705399999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.3808799999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.7491400000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.51335</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.3499300000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1455899999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0297499999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.95404</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.89825</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8009900000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.75668</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.70608</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6862299999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.62893</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.59056</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5625199999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5368299999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.51942</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.48349</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4518200000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4501299999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4387700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05DA-4568-A469-8C70FFD68250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430089952"/>
+        <c:axId val="241049568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430089952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241049568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241049568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430089952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECB7201-5392-4350-B559-4510AFC4A71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -997,10 +2603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection sqref="A1:B121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4873,5 +6481,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>